--- a/data-clean/ct_temp_table.xlsx
+++ b/data-clean/ct_temp_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samharper/git/bhet-report/data-clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED37F358-3B97-E646-A039-9C52B7205733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF406CD-ED3F-6149-84DC-5C9CF02E3709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="760" windowWidth="25620" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="760" windowWidth="25620" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>0.44 (-0.96, 1.83)</t>
   </si>
   <si>
-    <t>1.05 (-0.1, 2.2)</t>
-  </si>
-  <si>
     <t>0.8 (-0.48, 2.09)</t>
   </si>
   <si>
@@ -82,15 +79,9 @@
     <t>2.42 (0.54, 4.3)</t>
   </si>
   <si>
-    <t>2.41 (0.53, 4.3)</t>
-  </si>
-  <si>
     <t>Cohort 2, Year 4</t>
   </si>
   <si>
-    <t>0.79 (0, 1.57)</t>
-  </si>
-  <si>
     <t>1.5 (0.55, 2.46)</t>
   </si>
   <si>
@@ -109,9 +100,6 @@
     <t>Cohort 3, Year 3</t>
   </si>
   <si>
-    <t>0.87 (-0.2, 1.93)</t>
-  </si>
-  <si>
     <t>0.28 (-1.45, 2.02)</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>0.58 (-0.66, 1.82)</t>
   </si>
   <si>
-    <t>0.13 (-1.7, 1.97)</t>
-  </si>
-  <si>
     <t>2.48 (1.33, 3.62)</t>
   </si>
   <si>
@@ -163,10 +148,25 @@
     <t>2.13 (0.67, 3.59)</t>
   </si>
   <si>
-    <t>2.04 (0.08, 4)</t>
-  </si>
-  <si>
     <t>2.23 (0.26, 4.21)</t>
+  </si>
+  <si>
+    <t>1.05 (-0.10, 2.20)</t>
+  </si>
+  <si>
+    <t>2.41 (0.53, 4.30)</t>
+  </si>
+  <si>
+    <t>0.79 (0.00, 1.57)</t>
+  </si>
+  <si>
+    <t>0.87 (-0.20, 1.93)</t>
+  </si>
+  <si>
+    <t>0.13 (-1.70, 1.97)</t>
+  </si>
+  <si>
+    <t>2.04 (0.08, 4.00)</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -564,131 +564,131 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G6" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
